--- a/myproject/doc/diary.xlsx
+++ b/myproject/doc/diary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\myproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list 添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list 修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list 删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -173,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +534,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,6 +573,9 @@
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -572,6 +587,9 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -582,6 +600,9 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/myproject/doc/diary.xlsx
+++ b/myproject/doc/diary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\myproject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\myproject\myproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="2" r:id="rId1"/>
-    <sheet name="LIST" sheetId="1" r:id="rId2"/>
-    <sheet name="most important" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="LIST" sheetId="1" r:id="rId3"/>
+    <sheet name="most important" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,37 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,31 +45,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>redis的五种结构的用法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list 添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list 修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list 删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,61 +419,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -531,10 +435,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,61 +465,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5">
-        <v>42919</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>34</v>
-      </c>
-      <c r="B3" s="5">
-        <v>42919</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5">
-        <v>42919</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -612,12 +487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,18 +502,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
